--- a/datasets/data_output_g.xlsx
+++ b/datasets/data_output_g.xlsx
@@ -1,37 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anne\OneDrive\Desktop\Files\_VSC_repositories\spotify_tracks\datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C20991E-2F1F-422B-B54F-B7A79065D429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$33</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>num occ</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +79,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,288 +404,420 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>num occ</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>79740</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C2" s="2">
+        <f>B2/SUM($B$2:$B$33)</f>
+        <v>0.95986710643522644</v>
+      </c>
+      <c r="E2">
+        <f>SUM(B2:B33)</f>
+        <v>83074</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2273</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C33" si="0">B3/SUM($B$2:$B$33)</f>
+        <v>2.7361147892240652E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>518</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2354045790500032E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>194</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>2.335267351999422E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>104</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2518959000409275E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>60</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>7.222476346389966E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>35</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>4.2131112020608131E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>27</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>3.2501143558754845E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>24</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>2.888990538555986E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6852444808243254E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>9.6299684618532879E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>13</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5648698750511593E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>14</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6852444808243254E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="B15">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>14</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>1.444495269277993E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>7.2224763463899649E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B17">
         <v>8</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>11</v>
-      </c>
-      <c r="B16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>9.6299684618532879E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6112381731949825E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>2.407492115463322E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>1.203746057731661E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>1.203746057731661E-5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>2.407492115463322E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>2.407492115463322E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>1.203746057731661E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>2.407492115463322E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>26</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B26">
         <v>3</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>22</v>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>25</v>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>19</v>
-      </c>
-      <c r="B22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>23</v>
-      </c>
-      <c r="B23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>21</v>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>20</v>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6112381731949825E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>1.203746057731661E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>1.203746057731661E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>1.203746057731661E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>1.203746057731661E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>38</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>1.203746057731661E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>1.203746057731661E-5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>42</v>
       </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>38</v>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>24</v>
-      </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>41</v>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>34</v>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>31</v>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>27</v>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>1.203746057731661E-5</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B33" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B33">
+      <sortCondition ref="A1:A33"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>